--- a/config.xlsx
+++ b/config.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\wsl.localhost\Ubuntu-22.04\home\yinchi\hpath\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4B7EEE94-5502-402E-A6CE-ADBA4C4248C9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{59A40BC6-6039-4F91-B3CA-919A1725BA7F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="14952" yWindow="3360" windowWidth="40836" windowHeight="21480" firstSheet="1" activeTab="2" xr2:uid="{A900E9AD-4D2C-4337-83F8-5A9689E72AFC}"/>
+    <workbookView xWindow="20604" yWindow="1308" windowWidth="40836" windowHeight="21480" firstSheet="1" activeTab="8" xr2:uid="{A900E9AD-4D2C-4337-83F8-5A9689E72AFC}"/>
   </bookViews>
   <sheets>
     <sheet name="Arrival Schedules" sheetId="2" r:id="rId1"/>
@@ -21,16 +21,16 @@
     <sheet name="Reception Variables" sheetId="4" r:id="rId6"/>
     <sheet name="Cut-up Variables" sheetId="6" r:id="rId7"/>
     <sheet name="Processing Variables" sheetId="7" r:id="rId8"/>
-    <sheet name="MIcrotomy Variables" sheetId="8" r:id="rId9"/>
+    <sheet name="Microtomy Variables" sheetId="8" r:id="rId9"/>
   </sheets>
   <definedNames>
     <definedName name="Locations">'Runner Times'!$B$1:$C$1</definedName>
-    <definedName name="NumBlocksLargeSurgical">'Cut-up Variables'!$I$4:$K$4</definedName>
-    <definedName name="NumBlocksMega">'Cut-up Variables'!$I$3:$K$3</definedName>
-    <definedName name="NumSlidesLarges">'MIcrotomy Variables'!$E$5:$G$5</definedName>
-    <definedName name="NumSlidesLevels">'MIcrotomy Variables'!$E$3:$G$3</definedName>
-    <definedName name="NumSlidesMegas">'MIcrotomy Variables'!$E$6:$G$6</definedName>
-    <definedName name="NumSlidesSerials">'MIcrotomy Variables'!$E$4:$G$4</definedName>
+    <definedName name="NumBlocksLargeSurgical">'Cut-up Variables'!$I$4:$L$4</definedName>
+    <definedName name="NumBlocksMega">'Cut-up Variables'!$I$3:$L$3</definedName>
+    <definedName name="NumSlidesLarges">'Microtomy Variables'!$E$5:$H$5</definedName>
+    <definedName name="NumSlidesLevels">'Microtomy Variables'!$E$3:$H$3</definedName>
+    <definedName name="NumSlidesMegas">'Microtomy Variables'!$E$6:$H$6</definedName>
+    <definedName name="NumSlidesSerials">'Microtomy Variables'!$E$4:$H$4</definedName>
     <definedName name="ProbBMSCutup">'Cut-up Variables'!$B$3</definedName>
     <definedName name="ProbBMSCutupUrgent">'Cut-up Variables'!$C$3</definedName>
     <definedName name="ProbDecalcBone">'Processing Variables'!$B$2</definedName>
@@ -42,7 +42,7 @@
     <definedName name="ProbLargeCutup">'Cut-up Variables'!$B$5</definedName>
     <definedName name="ProbLargeCutupUrgent">'Cut-up Variables'!$C$5</definedName>
     <definedName name="ProbMegaBlocks">'Cut-up Variables'!$D$5</definedName>
-    <definedName name="ProbMicrotomyLevels">'MIcrotomy Variables'!$B$2</definedName>
+    <definedName name="ProbMicrotomyLevels">'Microtomy Variables'!$B$2</definedName>
     <definedName name="ProbPoolCutup">'Cut-up Variables'!$B$4</definedName>
     <definedName name="ProbPoolCutupUrgent">'Cut-up Variables'!$C$4</definedName>
     <definedName name="ProbPrebook">'Reception Variables'!$J$3</definedName>
@@ -75,7 +75,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="354" uniqueCount="206">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="361" uniqueCount="210">
   <si>
     <t>Task</t>
   </si>
@@ -374,12 +374,6 @@
     <t>External</t>
   </si>
   <si>
-    <t>Booking-in investigation (internal easy)</t>
-  </si>
-  <si>
-    <t>Booking-in investigation (internal hard)</t>
-  </si>
-  <si>
     <t>Booking-in investigation (external)</t>
   </si>
   <si>
@@ -431,9 +425,6 @@
     <t>Blocks</t>
   </si>
   <si>
-    <t>Processing (regular)</t>
-  </si>
-  <si>
     <t>Decalc</t>
   </si>
   <si>
@@ -461,24 +452,12 @@
     <t>per batch</t>
   </si>
   <si>
-    <t>Processing (urgent)</t>
-  </si>
-  <si>
-    <t>Processing (small surgicals)</t>
-  </si>
-  <si>
-    <t>Processing (large surgicals)</t>
-  </si>
-  <si>
     <t>fixed program "urgent biopsy"</t>
   </si>
   <si>
     <t>delayed start as actual program duration is 10hr27</t>
   </si>
   <si>
-    <t>Processing (megas)</t>
-  </si>
-  <si>
     <t>Need to separate Saturday starts? (would normally end on Sunday)</t>
   </si>
   <si>
@@ -497,15 +476,6 @@
     <t>SUM</t>
   </si>
   <si>
-    <t>Deliver (reception to cut-up)</t>
-  </si>
-  <si>
-    <t>Deliver (cut-up to processing)</t>
-  </si>
-  <si>
-    <t>Deliver (processing to microtomy)</t>
-  </si>
-  <si>
     <t>Regular</t>
   </si>
   <si>
@@ -530,9 +500,6 @@
     <t>Unload processing machine</t>
   </si>
   <si>
-    <t>Deliver (microtomy to staining)</t>
-  </si>
-  <si>
     <t>Microtomy staff</t>
   </si>
   <si>
@@ -557,9 +524,6 @@
     <t>Megas</t>
   </si>
   <si>
-    <t>TODO: check notes</t>
-  </si>
-  <si>
     <t>Microtomy (serials)</t>
   </si>
   <si>
@@ -581,9 +545,6 @@
     <t>Staining (megas)</t>
   </si>
   <si>
-    <t>Deliver (staining to labelling)</t>
-  </si>
-  <si>
     <t>Staining staff</t>
   </si>
   <si>
@@ -602,9 +563,6 @@
     <t>Unload staining machine (megas)</t>
   </si>
   <si>
-    <t>Batch.Name</t>
-  </si>
-  <si>
     <t>Booking-in (internal)</t>
   </si>
   <si>
@@ -614,12 +572,6 @@
     <t>Processing machine</t>
   </si>
   <si>
-    <t>Digital scanning (regular)</t>
-  </si>
-  <si>
-    <t>Digital scanning (megas)</t>
-  </si>
-  <si>
     <t>Scanning staff</t>
   </si>
   <si>
@@ -629,12 +581,6 @@
     <t>Scanning machine (megas)</t>
   </si>
   <si>
-    <t>Deliver (labelling to scanning)</t>
-  </si>
-  <si>
-    <t>Deliver (scanning to QC)</t>
-  </si>
-  <si>
     <t>Coverslip machine</t>
   </si>
   <si>
@@ -644,12 +590,6 @@
     <t>Unload coverslip machine (regular)</t>
   </si>
   <si>
-    <t>Coverslip (regular)</t>
-  </si>
-  <si>
-    <t>Coverslip (megas)</t>
-  </si>
-  <si>
     <t>per slide</t>
   </si>
   <si>
@@ -689,10 +629,82 @@
     <t>Assign histopathologist</t>
   </si>
   <si>
-    <t>Write report</t>
-  </si>
-  <si>
     <t>Histopathologist</t>
+  </si>
+  <si>
+    <t>Booking-in investigation (internal, easy)</t>
+  </si>
+  <si>
+    <t>Booking-in investigation (internal, hard)</t>
+  </si>
+  <si>
+    <t>Processing machine (urgent)</t>
+  </si>
+  <si>
+    <t>Processing machine (small surgicals)</t>
+  </si>
+  <si>
+    <t>Processing machine (large surgicals)</t>
+  </si>
+  <si>
+    <t>Processing machine (megas)</t>
+  </si>
+  <si>
+    <t>Coverslipping (regular)</t>
+  </si>
+  <si>
+    <t>Coverslipping (megas)</t>
+  </si>
+  <si>
+    <t>Write histopathological report</t>
+  </si>
+  <si>
+    <t>Batch Name</t>
+  </si>
+  <si>
+    <t>Delivery (reception to cut-up)</t>
+  </si>
+  <si>
+    <t>Delivery (cut-up to processing)</t>
+  </si>
+  <si>
+    <t>Delivery (processing to microtomy)</t>
+  </si>
+  <si>
+    <t>Delivery (microtomy to staining)</t>
+  </si>
+  <si>
+    <t>Delivery (labelling to scanning)</t>
+  </si>
+  <si>
+    <t>Delivery (staining to labelling)</t>
+  </si>
+  <si>
+    <t>Delivery (scanning to QC)</t>
+  </si>
+  <si>
+    <t>Bone station (blocks)</t>
+  </si>
+  <si>
+    <t>Processing machine (regular blocks)</t>
+  </si>
+  <si>
+    <t>Processing machine (mega blocks)</t>
+  </si>
+  <si>
+    <t>Staining (regular slides)</t>
+  </si>
+  <si>
+    <t>Staining (mega slides)</t>
+  </si>
+  <si>
+    <t>Scanning (regular slides)</t>
+  </si>
+  <si>
+    <t>Scanning (mega slides)</t>
+  </si>
+  <si>
+    <t>IntPERT</t>
   </si>
 </sst>
 </file>
@@ -1387,7 +1399,7 @@
     <filterColumn colId="2" hiddenButton="1"/>
   </autoFilter>
   <tableColumns count="3">
-    <tableColumn id="1" xr3:uid="{37B2D32C-1F10-4311-BEB3-8494B29F4F1F}" name="Batch.Name"/>
+    <tableColumn id="1" xr3:uid="{37B2D32C-1F10-4311-BEB3-8494B29F4F1F}" name="Batch Name"/>
     <tableColumn id="2" xr3:uid="{8388BF46-FC6E-4320-8423-419537D811FF}" name="Size"/>
     <tableColumn id="3" xr3:uid="{80AE8FC7-7E4C-4FED-A64F-50BA804DCA4F}" name="Unit"/>
   </tableColumns>
@@ -2369,7 +2381,7 @@
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A27" s="1" t="s">
-        <v>139</v>
+        <v>132</v>
       </c>
       <c r="B27" s="8">
         <f>SUM(B3:B26)</f>
@@ -3064,7 +3076,7 @@
     </row>
     <row r="54" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A54" s="1" t="s">
-        <v>139</v>
+        <v>132</v>
       </c>
       <c r="B54" s="8">
         <f>SUM(B30:B53)</f>
@@ -3145,7 +3157,7 @@
   <sheetData>
     <row r="1" spans="1:56" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>135</v>
+        <v>128</v>
       </c>
     </row>
     <row r="2" spans="1:56" x14ac:dyDescent="0.3">
@@ -3498,7 +3510,7 @@
     </row>
     <row r="5" spans="1:56" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="B5">
         <v>1</v>
@@ -3575,7 +3587,7 @@
     </row>
     <row r="6" spans="1:56" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>148</v>
+        <v>138</v>
       </c>
       <c r="B6">
         <v>1</v>
@@ -3652,7 +3664,7 @@
     </row>
     <row r="7" spans="1:56" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>152</v>
+        <v>141</v>
       </c>
       <c r="B7">
         <v>1</v>
@@ -3729,7 +3741,7 @@
     </row>
     <row r="8" spans="1:56" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>169</v>
+        <v>156</v>
       </c>
       <c r="B8">
         <v>1</v>
@@ -3806,7 +3818,7 @@
     </row>
     <row r="9" spans="1:56" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>181</v>
+        <v>165</v>
       </c>
       <c r="B9">
         <v>1</v>
@@ -3883,7 +3895,7 @@
     </row>
     <row r="10" spans="1:56" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>201</v>
+        <v>181</v>
       </c>
       <c r="B10">
         <v>1</v>
@@ -3960,7 +3972,7 @@
     </row>
     <row r="11" spans="1:56" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>205</v>
+        <v>184</v>
       </c>
       <c r="B11">
         <v>1</v>
@@ -4037,7 +4049,7 @@
     </row>
     <row r="12" spans="1:56" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="B12">
         <v>1</v>
@@ -4207,7 +4219,7 @@
     </row>
     <row r="13" spans="1:56" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>178</v>
+        <v>164</v>
       </c>
       <c r="B13">
         <v>1</v>
@@ -4377,7 +4389,7 @@
     </row>
     <row r="14" spans="1:56" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
-        <v>170</v>
+        <v>157</v>
       </c>
       <c r="B14">
         <v>1</v>
@@ -4547,7 +4559,7 @@
     </row>
     <row r="15" spans="1:56" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
-        <v>186</v>
+        <v>168</v>
       </c>
       <c r="B15">
         <v>1</v>
@@ -4717,7 +4729,7 @@
     </row>
     <row r="16" spans="1:56" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>182</v>
+        <v>166</v>
       </c>
       <c r="B16">
         <v>1</v>
@@ -4887,7 +4899,7 @@
     </row>
     <row r="17" spans="1:56" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
-        <v>183</v>
+        <v>167</v>
       </c>
       <c r="B17">
         <v>1</v>
@@ -5069,8 +5081,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{382B3625-2637-43EC-9285-E139C15B779C}">
   <dimension ref="A1:I50"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B34" sqref="B34"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A53" sqref="A53"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -5171,7 +5183,7 @@
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>176</v>
+        <v>162</v>
       </c>
       <c r="B5" t="s">
         <v>12</v>
@@ -5197,7 +5209,7 @@
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>177</v>
+        <v>163</v>
       </c>
       <c r="B6" t="s">
         <v>12</v>
@@ -5217,7 +5229,7 @@
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>99</v>
+        <v>185</v>
       </c>
       <c r="B7" t="s">
         <v>12</v>
@@ -5237,7 +5249,7 @@
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>100</v>
+        <v>186</v>
       </c>
       <c r="B8" t="s">
         <v>12</v>
@@ -5257,7 +5269,7 @@
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="B9" t="s">
         <v>12</v>
@@ -5277,7 +5289,7 @@
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="B10" t="s">
         <v>12</v>
@@ -5297,7 +5309,7 @@
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>144</v>
+        <v>134</v>
       </c>
       <c r="B11" t="s">
         <v>12</v>
@@ -5317,7 +5329,7 @@
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>145</v>
+        <v>135</v>
       </c>
       <c r="B12" t="s">
         <v>12</v>
@@ -5335,12 +5347,12 @@
         <v>7</v>
       </c>
       <c r="G12" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="B13" t="s">
         <v>12</v>
@@ -5358,12 +5370,12 @@
         <v>7</v>
       </c>
       <c r="G13" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="B14" t="s">
         <v>10</v>
@@ -5381,12 +5393,12 @@
         <v>8</v>
       </c>
       <c r="G14" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="B15" t="s">
         <v>12</v>
@@ -5404,12 +5416,12 @@
         <v>7</v>
       </c>
       <c r="G15" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>146</v>
+        <v>136</v>
       </c>
       <c r="B16" t="s">
         <v>12</v>
@@ -5427,12 +5439,12 @@
         <v>6</v>
       </c>
       <c r="G16" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
-        <v>147</v>
+        <v>137</v>
       </c>
       <c r="B17" t="s">
         <v>12</v>
@@ -5450,12 +5462,12 @@
         <v>6</v>
       </c>
       <c r="G17" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
-        <v>149</v>
+        <v>139</v>
       </c>
       <c r="B18" t="s">
         <v>12</v>
@@ -5475,7 +5487,7 @@
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
-        <v>150</v>
+        <v>140</v>
       </c>
       <c r="B19" t="s">
         <v>12</v>
@@ -5495,7 +5507,7 @@
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
-        <v>128</v>
+        <v>187</v>
       </c>
       <c r="B20" t="s">
         <v>10</v>
@@ -5516,12 +5528,12 @@
         <v>8</v>
       </c>
       <c r="G20" t="s">
-        <v>131</v>
+        <v>125</v>
       </c>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
-        <v>129</v>
+        <v>188</v>
       </c>
       <c r="B21" t="s">
         <v>10</v>
@@ -5542,12 +5554,12 @@
         <v>8</v>
       </c>
       <c r="G21" t="s">
-        <v>132</v>
+        <v>126</v>
       </c>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>130</v>
+        <v>189</v>
       </c>
       <c r="B22" t="s">
         <v>10</v>
@@ -5570,7 +5582,7 @@
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
-        <v>133</v>
+        <v>190</v>
       </c>
       <c r="B23" t="s">
         <v>10</v>
@@ -5588,12 +5600,12 @@
         <v>8</v>
       </c>
       <c r="G23" t="s">
-        <v>134</v>
+        <v>127</v>
       </c>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
-        <v>136</v>
+        <v>129</v>
       </c>
       <c r="B24" t="s">
         <v>12</v>
@@ -5613,7 +5625,7 @@
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
-        <v>137</v>
+        <v>130</v>
       </c>
       <c r="B25" t="s">
         <v>12</v>
@@ -5633,7 +5645,7 @@
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
-        <v>138</v>
+        <v>131</v>
       </c>
       <c r="B26" t="s">
         <v>12</v>
@@ -5653,7 +5665,7 @@
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
-        <v>161</v>
+        <v>149</v>
       </c>
       <c r="B27" t="s">
         <v>12</v>
@@ -5673,7 +5685,7 @@
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>162</v>
+        <v>150</v>
       </c>
       <c r="B28" t="s">
         <v>12</v>
@@ -5693,7 +5705,7 @@
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
-        <v>163</v>
+        <v>151</v>
       </c>
       <c r="B29" t="s">
         <v>12</v>
@@ -5713,7 +5725,7 @@
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
-        <v>164</v>
+        <v>152</v>
       </c>
       <c r="B30" t="s">
         <v>12</v>
@@ -5733,7 +5745,7 @@
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>171</v>
+        <v>158</v>
       </c>
       <c r="B31" t="s">
         <v>12</v>
@@ -5753,7 +5765,7 @@
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
-        <v>172</v>
+        <v>159</v>
       </c>
       <c r="B32" t="s">
         <v>12</v>
@@ -5773,7 +5785,7 @@
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
-        <v>166</v>
+        <v>154</v>
       </c>
       <c r="B33" t="s">
         <v>12</v>
@@ -5793,7 +5805,7 @@
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
-        <v>167</v>
+        <v>155</v>
       </c>
       <c r="B34" t="s">
         <v>12</v>
@@ -5813,7 +5825,7 @@
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
-        <v>173</v>
+        <v>160</v>
       </c>
       <c r="B35" t="s">
         <v>12</v>
@@ -5833,7 +5845,7 @@
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
-        <v>174</v>
+        <v>161</v>
       </c>
       <c r="B36" t="s">
         <v>12</v>
@@ -5853,7 +5865,7 @@
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
-        <v>187</v>
+        <v>169</v>
       </c>
       <c r="B37" t="s">
         <v>12</v>
@@ -5873,7 +5885,7 @@
     </row>
     <row r="38" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="B38" t="s">
         <v>12</v>
@@ -5891,12 +5903,12 @@
         <v>7</v>
       </c>
       <c r="G38" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
     </row>
     <row r="39" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="B39" t="s">
         <v>12</v>
@@ -5914,12 +5926,12 @@
         <v>7</v>
       </c>
       <c r="G39" t="s">
-        <v>191</v>
+        <v>171</v>
       </c>
     </row>
     <row r="40" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
-        <v>188</v>
+        <v>170</v>
       </c>
       <c r="B40" t="s">
         <v>12</v>
@@ -5939,7 +5951,7 @@
     </row>
     <row r="41" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
-        <v>192</v>
+        <v>172</v>
       </c>
       <c r="B41" t="s">
         <v>12</v>
@@ -5957,12 +5969,12 @@
         <v>6</v>
       </c>
       <c r="G41" t="s">
-        <v>191</v>
+        <v>171</v>
       </c>
     </row>
     <row r="42" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
-        <v>193</v>
+        <v>173</v>
       </c>
       <c r="B42" t="s">
         <v>12</v>
@@ -5982,7 +5994,7 @@
     </row>
     <row r="43" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
-        <v>194</v>
+        <v>174</v>
       </c>
       <c r="B43" t="s">
         <v>12</v>
@@ -6002,7 +6014,7 @@
     </row>
     <row r="44" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
-        <v>197</v>
+        <v>177</v>
       </c>
       <c r="B44" t="s">
         <v>12</v>
@@ -6022,7 +6034,7 @@
     </row>
     <row r="45" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
-        <v>198</v>
+        <v>178</v>
       </c>
       <c r="B45" t="s">
         <v>12</v>
@@ -6042,7 +6054,7 @@
     </row>
     <row r="46" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
-        <v>195</v>
+        <v>175</v>
       </c>
       <c r="B46" t="s">
         <v>12</v>
@@ -6062,7 +6074,7 @@
     </row>
     <row r="47" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
-        <v>196</v>
+        <v>176</v>
       </c>
       <c r="B47" t="s">
         <v>12</v>
@@ -6082,7 +6094,7 @@
     </row>
     <row r="48" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
-        <v>202</v>
+        <v>182</v>
       </c>
       <c r="B48" t="s">
         <v>12</v>
@@ -6102,7 +6114,7 @@
     </row>
     <row r="49" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
-        <v>203</v>
+        <v>183</v>
       </c>
       <c r="B49" t="s">
         <v>12</v>
@@ -6122,7 +6134,7 @@
     </row>
     <row r="50" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
-        <v>204</v>
+        <v>193</v>
       </c>
       <c r="B50" t="s">
         <v>12</v>
@@ -6179,15 +6191,15 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B1" t="s">
-        <v>199</v>
+        <v>179</v>
       </c>
       <c r="C1" t="s">
-        <v>200</v>
+        <v>180</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>199</v>
+        <v>179</v>
       </c>
       <c r="B2">
         <v>0</v>
@@ -6198,7 +6210,7 @@
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>200</v>
+        <v>180</v>
       </c>
       <c r="B3">
         <v>5</v>
@@ -6217,179 +6229,179 @@
   <dimension ref="A1:C15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A18" sqref="A18"/>
+      <selection activeCell="A17" sqref="A17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="28.77734375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="30.21875" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="11.88671875" customWidth="1"/>
     <col min="3" max="3" width="9.5546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>175</v>
+        <v>194</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>140</v>
+        <v>195</v>
       </c>
       <c r="B2">
         <v>50</v>
       </c>
       <c r="C2" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>141</v>
+        <v>196</v>
       </c>
       <c r="B3">
         <v>50</v>
       </c>
       <c r="C3" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>114</v>
+        <v>202</v>
       </c>
       <c r="B4">
         <v>30</v>
       </c>
       <c r="C4" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>118</v>
+        <v>203</v>
       </c>
       <c r="B5">
         <v>300</v>
       </c>
       <c r="C5" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>133</v>
+        <v>204</v>
       </c>
       <c r="B6">
         <v>36</v>
       </c>
       <c r="C6" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>142</v>
+        <v>197</v>
       </c>
       <c r="B7">
         <v>50</v>
       </c>
       <c r="C7" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>151</v>
+        <v>198</v>
       </c>
       <c r="B8">
         <v>50</v>
       </c>
       <c r="C8" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>166</v>
+        <v>205</v>
       </c>
       <c r="B9">
         <v>300</v>
       </c>
       <c r="C9" t="s">
-        <v>165</v>
+        <v>153</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>167</v>
+        <v>206</v>
       </c>
       <c r="B10">
         <v>36</v>
       </c>
       <c r="C10" t="s">
-        <v>165</v>
+        <v>153</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>168</v>
+        <v>200</v>
       </c>
       <c r="B11">
         <v>50</v>
       </c>
       <c r="C11" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>184</v>
+        <v>199</v>
       </c>
       <c r="B12">
         <v>50</v>
       </c>
       <c r="C12" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>179</v>
+        <v>207</v>
       </c>
       <c r="B13">
         <v>150</v>
       </c>
       <c r="C13" t="s">
-        <v>165</v>
+        <v>153</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
-        <v>180</v>
+        <v>208</v>
       </c>
       <c r="B14">
         <v>10</v>
       </c>
       <c r="C14" t="s">
-        <v>165</v>
+        <v>153</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
-        <v>185</v>
+        <v>201</v>
       </c>
       <c r="B15">
         <v>50</v>
       </c>
       <c r="C15" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
     </row>
   </sheetData>
@@ -6538,10 +6550,10 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{39B6A565-ED37-4E43-A919-2F5FC425F930}">
-  <dimension ref="A1:K5"/>
+  <dimension ref="A1:L5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+      <selection activeCell="J3" sqref="J3:L3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -6554,32 +6566,34 @@
     <col min="6" max="6" width="25.109375" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="10" customWidth="1"/>
     <col min="8" max="8" width="31.44140625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="10.88671875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="10.77734375" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="10.88671875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.3">
       <c r="B1" s="11" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="C1" s="11"/>
       <c r="D1" s="11" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="E1" s="11"/>
       <c r="F1" s="11"/>
       <c r="G1" s="6"/>
       <c r="I1" s="11" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="J1" s="11"/>
       <c r="K1" s="11"/>
-    </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L1" s="11"/>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>88</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>143</v>
+        <v>133</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>75</v>
@@ -6598,16 +6612,19 @@
         <v>88</v>
       </c>
       <c r="I2" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="J2" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="K2" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="L2" s="1" t="s">
         <v>108</v>
       </c>
-      <c r="J2" s="1" t="s">
-        <v>109</v>
-      </c>
-      <c r="K2" s="1" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>89</v>
       </c>
@@ -6627,19 +6644,22 @@
         <v>1</v>
       </c>
       <c r="H3" t="s">
-        <v>106</v>
-      </c>
-      <c r="I3">
-        <v>1</v>
+        <v>104</v>
+      </c>
+      <c r="I3" t="s">
+        <v>209</v>
       </c>
       <c r="J3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="K3">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
+        <v>2</v>
+      </c>
+      <c r="L3">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>90</v>
       </c>
@@ -6659,19 +6679,22 @@
         <v>0</v>
       </c>
       <c r="H4" t="s">
-        <v>107</v>
-      </c>
-      <c r="I4">
-        <v>1</v>
+        <v>105</v>
+      </c>
+      <c r="I4" t="s">
+        <v>209</v>
       </c>
       <c r="J4">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="K4">
+        <v>10</v>
+      </c>
+      <c r="L4">
         <v>50</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>91</v>
       </c>
@@ -6692,14 +6715,15 @@
         <v>0</v>
       </c>
       <c r="H5" s="7" t="s">
-        <v>111</v>
-      </c>
+        <v>109</v>
+      </c>
+      <c r="I5" s="7"/>
     </row>
   </sheetData>
   <mergeCells count="3">
     <mergeCell ref="D1:F1"/>
-    <mergeCell ref="I1:K1"/>
     <mergeCell ref="B1:C1"/>
+    <mergeCell ref="I1:L1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -6722,15 +6746,15 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="B2">
         <v>0.02</v>
@@ -6738,7 +6762,7 @@
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="B3">
         <v>0.05</v>
@@ -6746,7 +6770,7 @@
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="B4">
         <f>1-SUM(B2:B3)</f>
@@ -6761,10 +6785,10 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{506EE61E-93D3-42F0-B864-305A4DC29C6C}">
-  <dimension ref="A1:G6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D1" sqref="D1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -6772,111 +6796,126 @@
     <col min="1" max="1" width="13.21875" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="12" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="16.6640625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="10.109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.77734375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="10.109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>153</v>
+        <v>142</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>102</v>
-      </c>
-      <c r="D1" s="9" t="s">
-        <v>160</v>
-      </c>
+        <v>100</v>
+      </c>
+      <c r="D1" s="9"/>
       <c r="E1" s="11" t="s">
-        <v>157</v>
+        <v>146</v>
       </c>
       <c r="F1" s="11"/>
       <c r="G1" s="11"/>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H1" s="11"/>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>154</v>
+        <v>143</v>
       </c>
       <c r="B2">
         <v>0.75</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>156</v>
+        <v>145</v>
       </c>
       <c r="E2" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="H2" s="1" t="s">
         <v>108</v>
       </c>
-      <c r="F2" s="1" t="s">
-        <v>109</v>
-      </c>
-      <c r="G2" s="1" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>155</v>
+        <v>144</v>
       </c>
       <c r="B3">
         <f>1-B2</f>
         <v>0.25</v>
       </c>
       <c r="D3" t="s">
-        <v>154</v>
-      </c>
-      <c r="E3">
-        <v>1</v>
+        <v>143</v>
+      </c>
+      <c r="E3" t="s">
+        <v>209</v>
       </c>
       <c r="F3">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="G3">
+        <v>3</v>
+      </c>
+      <c r="H3">
         <v>6</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
       <c r="D4" t="s">
-        <v>155</v>
-      </c>
-      <c r="E4">
-        <v>5</v>
+        <v>144</v>
+      </c>
+      <c r="E4" t="s">
+        <v>209</v>
       </c>
       <c r="F4">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="G4">
+        <v>10</v>
+      </c>
+      <c r="H4">
         <v>20</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
       <c r="D5" t="s">
-        <v>158</v>
-      </c>
-      <c r="E5">
-        <v>1</v>
+        <v>147</v>
+      </c>
+      <c r="E5" t="s">
+        <v>209</v>
       </c>
       <c r="F5">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="G5">
+        <v>3</v>
+      </c>
+      <c r="H5">
         <v>6</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
       <c r="D6" t="s">
-        <v>159</v>
-      </c>
-      <c r="E6">
-        <v>1</v>
+        <v>148</v>
+      </c>
+      <c r="E6" t="s">
+        <v>209</v>
       </c>
       <c r="F6">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G6">
+        <v>2</v>
+      </c>
+      <c r="H6">
         <v>5</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="E1:G1"/>
+    <mergeCell ref="E1:H1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>

--- a/config.xlsx
+++ b/config.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\wsl.localhost\Ubuntu-22.04\home\yinchi\hpath\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{59A40BC6-6039-4F91-B3CA-919A1725BA7F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5DBB1074-215F-4A98-9870-DDA6082E1CA2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="20604" yWindow="1308" windowWidth="40836" windowHeight="21480" firstSheet="1" activeTab="8" xr2:uid="{A900E9AD-4D2C-4337-83F8-5A9689E72AFC}"/>
+    <workbookView xWindow="14256" yWindow="2400" windowWidth="40836" windowHeight="21480" firstSheet="1" activeTab="1" xr2:uid="{A900E9AD-4D2C-4337-83F8-5A9689E72AFC}"/>
   </bookViews>
   <sheets>
     <sheet name="Arrival Schedules" sheetId="2" r:id="rId1"/>
@@ -3138,8 +3138,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F40B2DCB-9A8F-4F21-BF75-9C7771C9EFEB}">
   <dimension ref="A1:BD17"/>
   <sheetViews>
-    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="A17" sqref="A17"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="AQ10" sqref="AQ10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3919,55 +3919,55 @@
         <v>0</v>
       </c>
       <c r="AA10">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AB10">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AC10">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AD10">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AE10">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AF10">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AG10">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="AH10">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="AI10">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="AJ10">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="AK10">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AL10">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AM10">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AN10">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AO10">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AP10">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AQ10">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="11" spans="1:56" x14ac:dyDescent="0.3">
@@ -3996,55 +3996,55 @@
         <v>0</v>
       </c>
       <c r="AA11">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AB11">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AC11">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="AD11">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="AE11">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="AF11">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="AG11">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AH11">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AI11">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AJ11">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AK11">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="AL11">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="AM11">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="AN11">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="AO11">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="AP11">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AQ11">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="12" spans="1:56" x14ac:dyDescent="0.3">
@@ -5082,7 +5082,7 @@
   <dimension ref="A1:I50"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A53" sqref="A53"/>
+      <selection activeCell="A48" sqref="A48:F48"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -6787,7 +6787,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{506EE61E-93D3-42F0-B864-305A4DC29C6C}">
   <dimension ref="A1:H6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D1" sqref="D1"/>
     </sheetView>
   </sheetViews>
